--- a/SERVER/Common/Data/excel/MapDefine.xlsx
+++ b/SERVER/Common/Data/excel/MapDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610"/>
+    <workbookView windowWidth="22480" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="MapDefine" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>SID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Name</t>
@@ -52,7 +52,7 @@
     <t>允许PK（1允许，0不允许）</t>
   </si>
   <si>
-    <t>新手村</t>
+    <t>荒古遗城</t>
   </si>
   <si>
     <t>Scene1</t>
@@ -61,25 +61,10 @@
     <t>场景</t>
   </si>
   <si>
-    <t>迷雾森林</t>
+    <t>萤野之原</t>
   </si>
   <si>
     <t>Scene2</t>
-  </si>
-  <si>
-    <t>河阳城</t>
-  </si>
-  <si>
-    <t>Scene3</t>
-  </si>
-  <si>
-    <t>阳光海岸</t>
-  </si>
-  <si>
-    <t>Scene4</t>
-  </si>
-  <si>
-    <t>副本</t>
   </si>
 </sst>
 </file>
@@ -92,7 +77,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +87,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -260,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,48 +550,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,97 +604,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
@@ -1154,40 +1126,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SERVER/Common/Data/excel/MapDefine.xlsx
+++ b/SERVER/Common/Data/excel/MapDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22480" windowHeight="9690"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="MapDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -31,12 +44,18 @@
     <t>AllowPK</t>
   </si>
   <si>
+    <t>Friction</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>场景编号</t>
   </si>
   <si>
@@ -50,6 +69,9 @@
   </si>
   <si>
     <t>允许PK（1允许，0不允许）</t>
+  </si>
+  <si>
+    <t>摩擦力(只关系作用力的衰减)</t>
   </si>
   <si>
     <t>荒古遗城</t>
@@ -70,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -94,34 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -135,14 +129,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +173,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -232,7 +233,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,49 +275,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,97 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,21 +468,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +501,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,148 +572,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,52 +731,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1025,23 +1047,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="25.0583333333333" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,73 +1080,88 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:5">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/MapDefine.xlsx
+++ b/SERVER/Common/Data/excel/MapDefine.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="MapDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +34,12 @@
     <t>Friction</t>
   </si>
   <si>
+    <t>InitPos</t>
+  </si>
+  <si>
+    <t>FixedY</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -74,7 +67,10 @@
     <t>摩擦力(只关系作用力的衰减)</t>
   </si>
   <si>
-    <t>荒古遗城</t>
+    <t>初始位置</t>
+  </si>
+  <si>
+    <t>自然之森</t>
   </si>
   <si>
     <t>Scene1</t>
@@ -83,7 +79,10 @@
     <t>场景</t>
   </si>
   <si>
-    <t>萤野之原</t>
+    <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>没有</t>
   </si>
   <si>
     <t>Scene2</t>
@@ -92,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -116,6 +115,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -129,6 +156,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,14 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +224,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -204,21 +239,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -233,28 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +274,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,24 +340,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,18 +382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,36 +394,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,19 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +467,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,21 +515,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,148 +571,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -731,52 +730,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1047,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
@@ -1064,7 +1063,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,59 +1082,74 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1143,25 +1157,37 @@
       <c r="F4" s="3">
         <v>30</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/MapDefine.xlsx
+++ b/SERVER/Common/Data/excel/MapDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -79,13 +79,16 @@
     <t>场景</t>
   </si>
   <si>
+    <t>[22,0,53]</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>Scene2</t>
+  </si>
+  <si>
     <t>[0,0,0]</t>
-  </si>
-  <si>
-    <t>没有</t>
-  </si>
-  <si>
-    <t>Scene2</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1184,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
